--- a/Kaizen.xlsx
+++ b/Kaizen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/126c1ab2d0041c1a/Desktop/project-scoreboard-central-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC89C4-4F9D-43AD-B911-C6AA30D78C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E1AC89C4-4F9D-43AD-B911-C6AA30D78C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1550D8C2-91B6-4729-A446-C3F25F467C08}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="377">
   <si>
     <t>Fee</t>
   </si>
@@ -853,9 +853,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mr. A. Vigneswaran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. M. Siva Subramanian </t>
   </si>
   <si>
     <t>CH/25-26/PI/004</t>
@@ -1186,6 +1183,15 @@
   </si>
   <si>
     <t>Delegates</t>
+  </si>
+  <si>
+    <t>Ashok Leylend Limited , Ennor</t>
+  </si>
+  <si>
+    <t>Mr. M Sivasubramanian</t>
+  </si>
+  <si>
+    <t>Mr. B Hari Krishna</t>
   </si>
 </sst>
 </file>
@@ -1472,288 +1478,279 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2423,40 +2420,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65BBD0A-33D7-4DCD-AE16-D20CDFAC7DD3}">
-  <dimension ref="A1:R232"/>
+  <dimension ref="A1:P234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82" style="76" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="12.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.90625" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="20.6328125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="13.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="20.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>373</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>374</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2487,14 +2484,14 @@
       </c>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="8">
@@ -2520,14 +2517,14 @@
       </c>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="85" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="10"/>
@@ -2541,14 +2538,14 @@
       <c r="L3" s="31"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="85" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="8"/>
@@ -2566,14 +2563,14 @@
       </c>
       <c r="M4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="85" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="10"/>
@@ -2587,14 +2584,14 @@
       <c r="L5" s="31"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="87" t="s">
+      <c r="B6" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>271</v>
       </c>
       <c r="D6" s="11"/>
@@ -2608,20 +2605,14 @@
         <v>64</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M6" s="35"/>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>272</v>
-      </c>
+    <row r="7" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="1"/>
@@ -2633,15 +2624,15 @@
       <c r="L7" s="39"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>362</v>
+      <c r="B8" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>361</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
@@ -2654,14 +2645,14 @@
       <c r="L8" s="39"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="85" t="s">
         <v>212</v>
       </c>
       <c r="D9" s="10"/>
@@ -2675,18 +2666,18 @@
         <v>64</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="85" t="s">
         <v>213</v>
       </c>
       <c r="D10" s="11"/>
@@ -2700,14 +2691,14 @@
       <c r="L10" s="36"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="85" t="s">
         <v>214</v>
       </c>
       <c r="D11" s="12"/>
@@ -2721,14 +2712,14 @@
       <c r="L11" s="39"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="85" t="s">
         <v>212</v>
       </c>
       <c r="D12" s="12"/>
@@ -2742,14 +2733,14 @@
       <c r="L12" s="39"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="85" t="s">
         <v>215</v>
       </c>
       <c r="D13" s="10"/>
@@ -2763,14 +2754,14 @@
       <c r="L13" s="45"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="85" t="s">
         <v>216</v>
       </c>
       <c r="D14" s="11"/>
@@ -2784,14 +2775,14 @@
       <c r="L14" s="29"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="85" t="s">
         <v>217</v>
       </c>
       <c r="D15" s="12"/>
@@ -2805,14 +2796,14 @@
       <c r="L15" s="39"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>7</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="85" t="s">
         <v>218</v>
       </c>
       <c r="D16" s="12"/>
@@ -2826,14 +2817,14 @@
       <c r="L16" s="39"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>8</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="85" t="s">
         <v>215</v>
       </c>
       <c r="D17" s="10"/>
@@ -2847,14 +2838,14 @@
       <c r="L17" s="31"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>8</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="85" t="s">
         <v>216</v>
       </c>
       <c r="D18" s="11"/>
@@ -2868,14 +2859,14 @@
       <c r="L18" s="36"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>9</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="85" t="s">
         <v>220</v>
       </c>
       <c r="D19" s="12"/>
@@ -2889,18 +2880,18 @@
         <v>64</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>9</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="85" t="s">
         <v>219</v>
       </c>
       <c r="D20" s="12"/>
@@ -2914,14 +2905,14 @@
       <c r="L20" s="39"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>10</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D21" s="16"/>
@@ -2935,15 +2926,15 @@
       <c r="L21" s="45"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>10</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="87" t="s">
-        <v>291</v>
+      <c r="C22" s="85" t="s">
+        <v>290</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="6"/>
@@ -2956,14 +2947,14 @@
       <c r="L22" s="29"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>11</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="85" t="s">
         <v>222</v>
       </c>
       <c r="D23" s="10"/>
@@ -2977,19 +2968,19 @@
         <v>64</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>11</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="87" t="s">
-        <v>292</v>
+      <c r="C24" s="85" t="s">
+        <v>291</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="15"/>
@@ -3002,15 +2993,15 @@
       <c r="L24" s="36"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>12</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>279</v>
+      <c r="C25" s="85" t="s">
+        <v>278</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
@@ -3023,15 +3014,15 @@
       <c r="L25" s="39"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>12</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="87" t="s">
-        <v>280</v>
+      <c r="C26" s="85" t="s">
+        <v>279</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
@@ -3044,15 +3035,15 @@
       <c r="L26" s="39"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>13</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="87" t="s">
-        <v>281</v>
+      <c r="C27" s="85" t="s">
+        <v>280</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
@@ -3065,15 +3056,15 @@
       <c r="L27" s="39"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>13</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="87" t="s">
-        <v>293</v>
+      <c r="C28" s="85" t="s">
+        <v>292</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
@@ -3086,15 +3077,15 @@
       <c r="L28" s="39"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <v>14</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="87" t="s">
-        <v>284</v>
+      <c r="C29" s="85" t="s">
+        <v>283</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="3"/>
@@ -3111,15 +3102,15 @@
       </c>
       <c r="M29" s="46"/>
     </row>
-    <row r="30" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>14</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="87" t="s">
-        <v>285</v>
+      <c r="C30" s="85" t="s">
+        <v>284</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="6"/>
@@ -3132,14 +3123,14 @@
       <c r="L30" s="29"/>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>15</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="85" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="18"/>
@@ -3153,14 +3144,14 @@
       <c r="L31" s="55"/>
       <c r="M31" s="56"/>
     </row>
-    <row r="32" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="85" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="10"/>
@@ -3174,14 +3165,14 @@
       <c r="L32" s="31"/>
       <c r="M32" s="34"/>
     </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>16</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="86" t="s">
         <v>196</v>
       </c>
       <c r="D33" s="11">
@@ -3209,16 +3200,15 @@
         <v>211</v>
       </c>
       <c r="M33" s="35"/>
-      <c r="N33" s="66"/>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>16</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="86" t="s">
         <v>197</v>
       </c>
       <c r="D34" s="12"/>
@@ -3231,16 +3221,15 @@
       <c r="K34" s="1"/>
       <c r="L34" s="39"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="66"/>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>17</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="86" t="s">
         <v>198</v>
       </c>
       <c r="D35" s="12"/>
@@ -3253,17 +3242,16 @@
       <c r="K35" s="1"/>
       <c r="L35" s="39"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="66"/>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>17</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="88" t="s">
-        <v>290</v>
+      <c r="C36" s="86" t="s">
+        <v>289</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
@@ -3275,16 +3263,15 @@
       <c r="K36" s="1"/>
       <c r="L36" s="39"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="66"/>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>18</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="86" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="12">
@@ -3313,14 +3300,14 @@
       </c>
       <c r="M37" s="40"/>
     </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>18</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="12"/>
@@ -3334,14 +3321,14 @@
       <c r="L38" s="39"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>19</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="86" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="12"/>
@@ -3355,14 +3342,14 @@
       <c r="L39" s="39"/>
       <c r="M39" s="40"/>
     </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>19</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="86" t="s">
         <v>104</v>
       </c>
       <c r="D40" s="16"/>
@@ -3376,14 +3363,14 @@
       <c r="L40" s="45"/>
       <c r="M40" s="46"/>
     </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>20</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="86" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="11"/>
@@ -3397,14 +3384,14 @@
       <c r="L41" s="36"/>
       <c r="M41" s="37"/>
     </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>20</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="86" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="12"/>
@@ -3418,14 +3405,14 @@
       <c r="L42" s="39"/>
       <c r="M42" s="40"/>
     </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>21</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="86" t="s">
         <v>179</v>
       </c>
       <c r="D43" s="12"/>
@@ -3439,14 +3426,14 @@
       <c r="L43" s="39"/>
       <c r="M43" s="40"/>
     </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="88" t="s">
+      <c r="C44" s="86" t="s">
         <v>111</v>
       </c>
       <c r="D44" s="16"/>
@@ -3460,14 +3447,14 @@
       <c r="L44" s="45"/>
       <c r="M44" s="46"/>
     </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>22</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="85" t="s">
         <v>132</v>
       </c>
       <c r="D45" s="8"/>
@@ -3485,14 +3472,14 @@
       </c>
       <c r="M45" s="32"/>
     </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>22</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="85" t="s">
         <v>133</v>
       </c>
       <c r="D46" s="12"/>
@@ -3506,15 +3493,15 @@
       <c r="L46" s="39"/>
       <c r="M46" s="40"/>
     </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>23</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="87" t="s">
-        <v>289</v>
+      <c r="C47" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
@@ -3527,14 +3514,14 @@
       <c r="L47" s="39"/>
       <c r="M47" s="40"/>
     </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>23</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="85" t="s">
         <v>134</v>
       </c>
       <c r="D48" s="12"/>
@@ -3548,14 +3535,14 @@
       <c r="L48" s="39"/>
       <c r="M48" s="40"/>
     </row>
-    <row r="49" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>24</v>
       </c>
-      <c r="B49" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C49" s="89" t="s">
+      <c r="B49" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="87" t="s">
         <v>243</v>
       </c>
       <c r="D49" s="12">
@@ -3583,14 +3570,14 @@
       </c>
       <c r="M49" s="40"/>
     </row>
-    <row r="50" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>24</v>
       </c>
-      <c r="B50" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C50" s="89" t="s">
+      <c r="B50" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="87" t="s">
         <v>242</v>
       </c>
       <c r="D50" s="12"/>
@@ -3604,14 +3591,14 @@
       <c r="L50" s="39"/>
       <c r="M50" s="40"/>
     </row>
-    <row r="51" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>25</v>
       </c>
-      <c r="B51" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C51" s="89" t="s">
+      <c r="B51" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="87" t="s">
         <v>244</v>
       </c>
       <c r="D51" s="12"/>
@@ -3625,14 +3612,14 @@
       <c r="L51" s="39"/>
       <c r="M51" s="40"/>
     </row>
-    <row r="52" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
         <v>25</v>
       </c>
-      <c r="B52" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C52" s="89" t="s">
+      <c r="B52" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="87" t="s">
         <v>245</v>
       </c>
       <c r="D52" s="10"/>
@@ -3646,14 +3633,14 @@
       <c r="L52" s="31"/>
       <c r="M52" s="34"/>
     </row>
-    <row r="53" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>26</v>
       </c>
-      <c r="B53" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C53" s="89" t="s">
+      <c r="B53" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="11"/>
@@ -3667,14 +3654,14 @@
       <c r="L53" s="36"/>
       <c r="M53" s="37"/>
     </row>
-    <row r="54" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>26</v>
       </c>
-      <c r="B54" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C54" s="89" t="s">
+      <c r="B54" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" s="87" t="s">
         <v>246</v>
       </c>
       <c r="D54" s="12"/>
@@ -3688,14 +3675,14 @@
       <c r="L54" s="39"/>
       <c r="M54" s="40"/>
     </row>
-    <row r="55" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>27</v>
       </c>
-      <c r="B55" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C55" s="89" t="s">
+      <c r="B55" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="87" t="s">
         <v>247</v>
       </c>
       <c r="D55" s="12"/>
@@ -3709,14 +3696,14 @@
       <c r="L55" s="39"/>
       <c r="M55" s="40"/>
     </row>
-    <row r="56" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
         <v>27</v>
       </c>
-      <c r="B56" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="C56" s="89" t="s">
+      <c r="B56" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="87" t="s">
         <v>248</v>
       </c>
       <c r="D56" s="16"/>
@@ -3730,14 +3717,14 @@
       <c r="L56" s="45"/>
       <c r="M56" s="46"/>
     </row>
-    <row r="57" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>28</v>
       </c>
-      <c r="B57" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C57" s="87" t="s">
+      <c r="B57" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="85" t="s">
         <v>199</v>
       </c>
       <c r="D57" s="8"/>
@@ -3747,7 +3734,7 @@
       <c r="H57" s="51"/>
       <c r="I57" s="22"/>
       <c r="J57" s="17"/>
-      <c r="K57" s="67" t="s">
+      <c r="K57" s="66" t="s">
         <v>55</v>
       </c>
       <c r="L57" s="29" t="s">
@@ -3755,14 +3742,14 @@
       </c>
       <c r="M57" s="32"/>
     </row>
-    <row r="58" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
         <v>28</v>
       </c>
-      <c r="B58" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C58" s="87" t="s">
+      <c r="B58" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C58" s="85" t="s">
         <v>200</v>
       </c>
       <c r="D58" s="10"/>
@@ -3776,14 +3763,14 @@
       <c r="L58" s="31"/>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>29</v>
       </c>
-      <c r="B59" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C59" s="87" t="s">
+      <c r="B59" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="85" t="s">
         <v>202</v>
       </c>
       <c r="D59" s="11"/>
@@ -3797,14 +3784,14 @@
       <c r="L59" s="36"/>
       <c r="M59" s="37"/>
     </row>
-    <row r="60" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>29</v>
       </c>
-      <c r="B60" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C60" s="87" t="s">
+      <c r="B60" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="85" t="s">
         <v>201</v>
       </c>
       <c r="D60" s="12"/>
@@ -3818,14 +3805,14 @@
       <c r="L60" s="39"/>
       <c r="M60" s="40"/>
     </row>
-    <row r="61" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>30</v>
       </c>
-      <c r="B61" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C61" s="87" t="s">
+      <c r="B61" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="85" t="s">
         <v>203</v>
       </c>
       <c r="D61" s="12"/>
@@ -3839,15 +3826,15 @@
       <c r="L61" s="39"/>
       <c r="M61" s="40"/>
     </row>
-    <row r="62" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>30</v>
       </c>
-      <c r="B62" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C62" s="87" t="s">
-        <v>286</v>
+      <c r="B62" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="85" t="s">
+        <v>285</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
@@ -3860,14 +3847,14 @@
       <c r="L62" s="39"/>
       <c r="M62" s="40"/>
     </row>
-    <row r="63" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>31</v>
       </c>
-      <c r="B63" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C63" s="87" t="s">
+      <c r="B63" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C63" s="85" t="s">
         <v>204</v>
       </c>
       <c r="D63" s="12"/>
@@ -3881,14 +3868,14 @@
       <c r="L63" s="39"/>
       <c r="M63" s="40"/>
     </row>
-    <row r="64" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>31</v>
       </c>
-      <c r="B64" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C64" s="87" t="s">
+      <c r="B64" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C64" s="85" t="s">
         <v>205</v>
       </c>
       <c r="D64" s="12"/>
@@ -3902,14 +3889,14 @@
       <c r="L64" s="39"/>
       <c r="M64" s="40"/>
     </row>
-    <row r="65" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>32</v>
       </c>
-      <c r="B65" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="87" t="s">
+      <c r="B65" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="85" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="12"/>
@@ -3923,14 +3910,14 @@
       <c r="L65" s="39"/>
       <c r="M65" s="40"/>
     </row>
-    <row r="66" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>32</v>
       </c>
-      <c r="B66" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C66" s="87" t="s">
+      <c r="B66" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="85" t="s">
         <v>206</v>
       </c>
       <c r="D66" s="12"/>
@@ -3944,14 +3931,14 @@
       <c r="L66" s="39"/>
       <c r="M66" s="40"/>
     </row>
-    <row r="67" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>33</v>
       </c>
-      <c r="B67" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C67" s="87" t="s">
+      <c r="B67" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" s="85" t="s">
         <v>208</v>
       </c>
       <c r="D67" s="12"/>
@@ -3965,14 +3952,14 @@
       <c r="L67" s="39"/>
       <c r="M67" s="40"/>
     </row>
-    <row r="68" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>33</v>
       </c>
-      <c r="B68" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C68" s="87" t="s">
+      <c r="B68" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C68" s="85" t="s">
         <v>209</v>
       </c>
       <c r="D68" s="12"/>
@@ -3986,15 +3973,15 @@
       <c r="L68" s="39"/>
       <c r="M68" s="40"/>
     </row>
-    <row r="69" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>33</v>
       </c>
-      <c r="B69" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>287</v>
+      <c r="B69" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C69" s="85" t="s">
+        <v>286</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="13"/>
@@ -4007,15 +3994,15 @@
       <c r="L69" s="39"/>
       <c r="M69" s="40"/>
     </row>
-    <row r="70" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>33</v>
       </c>
-      <c r="B70" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C70" s="87" t="s">
-        <v>283</v>
+      <c r="B70" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C70" s="85" t="s">
+        <v>282</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="13"/>
@@ -4028,15 +4015,15 @@
       <c r="L70" s="39"/>
       <c r="M70" s="40"/>
     </row>
-    <row r="71" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>33</v>
       </c>
-      <c r="B71" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="C71" s="87" t="s">
-        <v>282</v>
+      <c r="B71" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C71" s="85" t="s">
+        <v>281</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
@@ -4049,14 +4036,14 @@
       <c r="L71" s="39"/>
       <c r="M71" s="40"/>
     </row>
-    <row r="72" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>34</v>
       </c>
-      <c r="B72" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="C72" s="89" t="s">
+      <c r="B72" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="87" t="s">
         <v>193</v>
       </c>
       <c r="D72" s="12"/>
@@ -4074,15 +4061,15 @@
       </c>
       <c r="M72" s="40"/>
     </row>
-    <row r="73" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
         <v>34</v>
       </c>
-      <c r="B73" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="C73" s="89" t="s">
-        <v>333</v>
+      <c r="B73" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="C73" s="87" t="s">
+        <v>332</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="3"/>
@@ -4095,14 +4082,14 @@
       <c r="L73" s="45"/>
       <c r="M73" s="46"/>
     </row>
-    <row r="74" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>35</v>
       </c>
-      <c r="B74" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="C74" s="89" t="s">
+      <c r="B74" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="87" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="8"/>
@@ -4116,15 +4103,15 @@
       <c r="L74" s="29"/>
       <c r="M74" s="32"/>
     </row>
-    <row r="75" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
         <v>35</v>
       </c>
-      <c r="B75" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="C75" s="89" t="s">
-        <v>332</v>
+      <c r="B75" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="87" t="s">
+        <v>331</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="14"/>
@@ -4137,15 +4124,15 @@
       <c r="L75" s="31"/>
       <c r="M75" s="34"/>
     </row>
-    <row r="76" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>36</v>
       </c>
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="89" t="s">
-        <v>337</v>
+      <c r="C76" s="87" t="s">
+        <v>336</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="15"/>
@@ -4162,15 +4149,15 @@
       </c>
       <c r="M76" s="37"/>
     </row>
-    <row r="77" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>36</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="89" t="s">
-        <v>336</v>
+      <c r="C77" s="87" t="s">
+        <v>335</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="13"/>
@@ -4183,15 +4170,15 @@
       <c r="L77" s="39"/>
       <c r="M77" s="40"/>
     </row>
-    <row r="78" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>37</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="89" t="s">
-        <v>338</v>
+      <c r="C78" s="87" t="s">
+        <v>337</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="13"/>
@@ -4204,14 +4191,14 @@
       <c r="L78" s="39"/>
       <c r="M78" s="40"/>
     </row>
-    <row r="79" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
         <v>37</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="89" t="s">
+      <c r="C79" s="87" t="s">
         <v>45</v>
       </c>
       <c r="D79" s="16"/>
@@ -4225,15 +4212,15 @@
       <c r="L79" s="45"/>
       <c r="M79" s="46"/>
     </row>
-    <row r="80" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>38</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="89" t="s">
-        <v>340</v>
+      <c r="C80" s="87" t="s">
+        <v>339</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="6"/>
@@ -4246,15 +4233,15 @@
       <c r="L80" s="29"/>
       <c r="M80" s="32"/>
     </row>
-    <row r="81" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>38</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="89" t="s">
-        <v>339</v>
+      <c r="C81" s="87" t="s">
+        <v>338</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="13"/>
@@ -4267,14 +4254,14 @@
       <c r="L81" s="39"/>
       <c r="M81" s="40"/>
     </row>
-    <row r="82" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>39</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="89" t="s">
+      <c r="C82" s="87" t="s">
         <v>47</v>
       </c>
       <c r="D82" s="12"/>
@@ -4288,14 +4275,14 @@
       <c r="L82" s="39"/>
       <c r="M82" s="40"/>
     </row>
-    <row r="83" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>39</v>
       </c>
-      <c r="B83" s="77" t="s">
+      <c r="B83" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="89" t="s">
+      <c r="C83" s="87" t="s">
         <v>46</v>
       </c>
       <c r="D83" s="12"/>
@@ -4309,14 +4296,14 @@
       <c r="L83" s="39"/>
       <c r="M83" s="40"/>
     </row>
-    <row r="84" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>40</v>
       </c>
-      <c r="B84" s="80" t="s">
+      <c r="B84" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="86" t="s">
         <v>249</v>
       </c>
       <c r="D84" s="12"/>
@@ -4333,16 +4320,15 @@
         <v>265</v>
       </c>
       <c r="M84" s="1"/>
-      <c r="N84" s="66"/>
-    </row>
-    <row r="85" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>40</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="86" t="s">
         <v>250</v>
       </c>
       <c r="D85" s="12"/>
@@ -4355,16 +4341,15 @@
       <c r="K85" s="1"/>
       <c r="L85" s="39"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="66"/>
-    </row>
-    <row r="86" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>41</v>
       </c>
-      <c r="B86" s="80" t="s">
+      <c r="B86" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C86" s="88" t="s">
+      <c r="C86" s="86" t="s">
         <v>252</v>
       </c>
       <c r="D86" s="12"/>
@@ -4377,16 +4362,15 @@
       <c r="K86" s="1"/>
       <c r="L86" s="39"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="66"/>
-    </row>
-    <row r="87" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>41</v>
       </c>
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C87" s="88" t="s">
+      <c r="C87" s="86" t="s">
         <v>251</v>
       </c>
       <c r="D87" s="12"/>
@@ -4399,16 +4383,15 @@
       <c r="K87" s="1"/>
       <c r="L87" s="39"/>
       <c r="M87" s="1"/>
-      <c r="N87" s="66"/>
-    </row>
-    <row r="88" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
         <v>42</v>
       </c>
-      <c r="B88" s="80" t="s">
+      <c r="B88" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C88" s="88" t="s">
+      <c r="C88" s="86" t="s">
         <v>254</v>
       </c>
       <c r="D88" s="10"/>
@@ -4421,16 +4404,15 @@
       <c r="K88" s="30"/>
       <c r="L88" s="31"/>
       <c r="M88" s="30"/>
-      <c r="N88" s="66"/>
-    </row>
-    <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>42</v>
       </c>
-      <c r="B89" s="80" t="s">
+      <c r="B89" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="88" t="s">
+      <c r="C89" s="86" t="s">
         <v>253</v>
       </c>
       <c r="D89" s="11"/>
@@ -4440,19 +4422,17 @@
       <c r="H89" s="53"/>
       <c r="I89" s="18"/>
       <c r="J89" s="19"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="70"/>
+      <c r="L89" s="69"/>
       <c r="M89" s="35"/>
-      <c r="N89" s="66"/>
-    </row>
-    <row r="90" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>43</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="C90" s="85" t="s">
         <v>135</v>
       </c>
       <c r="D90" s="12">
@@ -4492,15 +4472,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>43</v>
       </c>
-      <c r="B91" s="80" t="s">
+      <c r="B91" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="87" t="s">
-        <v>288</v>
+      <c r="C91" s="85" t="s">
+        <v>287</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="13"/>
@@ -4511,21 +4491,21 @@
       <c r="J91" s="3"/>
       <c r="K91" s="50"/>
       <c r="L91" s="39"/>
-      <c r="M91" s="73">
+      <c r="M91" s="72">
         <v>46067</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
         <v>44</v>
       </c>
-      <c r="B92" s="80" t="s">
+      <c r="B92" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="85" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="16"/>
@@ -4539,14 +4519,14 @@
       <c r="L92" s="45"/>
       <c r="M92" s="46"/>
     </row>
-    <row r="93" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>44</v>
       </c>
-      <c r="B93" s="80" t="s">
+      <c r="B93" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="C93" s="85" t="s">
         <v>137</v>
       </c>
       <c r="D93" s="20"/>
@@ -4556,18 +4536,18 @@
       <c r="H93" s="51"/>
       <c r="I93" s="22"/>
       <c r="J93" s="17"/>
-      <c r="K93" s="67"/>
+      <c r="K93" s="66"/>
       <c r="L93" s="29"/>
       <c r="M93" s="32"/>
     </row>
-    <row r="94" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13">
         <v>45</v>
       </c>
-      <c r="B94" s="83" t="s">
+      <c r="B94" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="89" t="s">
+      <c r="C94" s="87" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="21"/>
@@ -4585,14 +4565,14 @@
       </c>
       <c r="M94" s="34"/>
     </row>
-    <row r="95" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>45</v>
       </c>
-      <c r="B95" s="83" t="s">
+      <c r="B95" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="89" t="s">
+      <c r="C95" s="87" t="s">
         <v>40</v>
       </c>
       <c r="D95" s="20"/>
@@ -4606,14 +4586,14 @@
       <c r="L95" s="29"/>
       <c r="M95" s="32"/>
     </row>
-    <row r="96" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>46</v>
       </c>
-      <c r="B96" s="83" t="s">
+      <c r="B96" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="89" t="s">
+      <c r="C96" s="87" t="s">
         <v>42</v>
       </c>
       <c r="D96" s="12"/>
@@ -4627,14 +4607,14 @@
       <c r="L96" s="39"/>
       <c r="M96" s="40"/>
     </row>
-    <row r="97" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>46</v>
       </c>
-      <c r="B97" s="83" t="s">
+      <c r="B97" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="89" t="s">
+      <c r="C97" s="87" t="s">
         <v>41</v>
       </c>
       <c r="D97" s="12"/>
@@ -4648,14 +4628,14 @@
       <c r="L97" s="39"/>
       <c r="M97" s="40"/>
     </row>
-    <row r="98" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
         <v>47</v>
       </c>
-      <c r="B98" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="C98" s="87" t="s">
+      <c r="B98" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="85" t="s">
         <v>24</v>
       </c>
       <c r="D98" s="10"/>
@@ -4675,14 +4655,14 @@
       </c>
       <c r="M98" s="34"/>
     </row>
-    <row r="99" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>47</v>
       </c>
-      <c r="B99" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="C99" s="87" t="s">
+      <c r="B99" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" s="85" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="8"/>
@@ -4696,14 +4676,14 @@
       <c r="L99" s="29"/>
       <c r="M99" s="37"/>
     </row>
-    <row r="100" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>48</v>
       </c>
-      <c r="B100" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="C100" s="87" t="s">
+      <c r="B100" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C100" s="85" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="12"/>
@@ -4717,14 +4697,14 @@
       <c r="L100" s="39"/>
       <c r="M100" s="40"/>
     </row>
-    <row r="101" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13">
         <v>48</v>
       </c>
-      <c r="B101" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="C101" s="87" t="s">
+      <c r="B101" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" s="85" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="10"/>
@@ -4738,15 +4718,15 @@
       <c r="L101" s="45"/>
       <c r="M101" s="46"/>
     </row>
-    <row r="102" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>49</v>
       </c>
-      <c r="B102" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="C102" s="88" t="s">
-        <v>329</v>
+      <c r="B102" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C102" s="86" t="s">
+        <v>328</v>
       </c>
       <c r="D102" s="11">
         <v>3000</v>
@@ -4773,17 +4753,16 @@
         <v>191</v>
       </c>
       <c r="M102" s="9"/>
-      <c r="N102" s="66"/>
-    </row>
-    <row r="103" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>49</v>
       </c>
-      <c r="B103" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="C103" s="88" t="s">
-        <v>328</v>
+      <c r="B103" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="86" t="s">
+        <v>327</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="13"/>
@@ -4795,17 +4774,16 @@
       <c r="K103" s="1"/>
       <c r="L103" s="39"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="66"/>
-    </row>
-    <row r="104" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>50</v>
       </c>
-      <c r="B104" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="C104" s="88" t="s">
-        <v>331</v>
+      <c r="B104" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" s="86" t="s">
+        <v>330</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="13"/>
@@ -4817,17 +4795,16 @@
       <c r="K104" s="1"/>
       <c r="L104" s="39"/>
       <c r="M104" s="1"/>
-      <c r="N104" s="66"/>
-    </row>
-    <row r="105" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>50</v>
       </c>
-      <c r="B105" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="C105" s="88" t="s">
-        <v>330</v>
+      <c r="B105" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>329</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="3"/>
@@ -4839,16 +4816,15 @@
       <c r="K105" s="5"/>
       <c r="L105" s="45"/>
       <c r="M105" s="5"/>
-      <c r="N105" s="66"/>
-    </row>
-    <row r="106" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>51</v>
       </c>
-      <c r="B106" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C106" s="87" t="s">
+      <c r="B106" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C106" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="12">
@@ -4876,15 +4852,15 @@
       </c>
       <c r="M106" s="40"/>
     </row>
-    <row r="107" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>51</v>
       </c>
-      <c r="B107" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C107" s="87" t="s">
-        <v>359</v>
+      <c r="B107" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="85" t="s">
+        <v>358</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -4897,15 +4873,15 @@
       <c r="L107" s="39"/>
       <c r="M107" s="40"/>
     </row>
-    <row r="108" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>52</v>
       </c>
-      <c r="B108" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C108" s="87" t="s">
-        <v>360</v>
+      <c r="B108" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" s="85" t="s">
+        <v>359</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="13"/>
@@ -4918,15 +4894,15 @@
       <c r="L108" s="39"/>
       <c r="M108" s="40"/>
     </row>
-    <row r="109" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
         <v>52</v>
       </c>
-      <c r="B109" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="C109" s="87" t="s">
-        <v>346</v>
+      <c r="B109" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="C109" s="85" t="s">
+        <v>345</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="3"/>
@@ -4939,14 +4915,14 @@
       <c r="L109" s="45"/>
       <c r="M109" s="46"/>
     </row>
-    <row r="110" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>53</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C110" s="89" t="s">
+      <c r="C110" s="87" t="s">
         <v>44</v>
       </c>
       <c r="D110" s="8"/>
@@ -4966,14 +4942,14 @@
         <v>46064</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>53</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C111" s="89" t="s">
+      <c r="C111" s="87" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="12"/>
@@ -4989,15 +4965,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>54</v>
       </c>
-      <c r="B112" s="77" t="s">
+      <c r="B112" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" s="88" t="s">
         <v>357</v>
-      </c>
-      <c r="C112" s="90" t="s">
-        <v>358</v>
       </c>
       <c r="D112" s="65">
         <v>3000</v>
@@ -5028,18 +5004,18 @@
       <c r="L112" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="M112" s="72">
+      <c r="M112" s="71">
         <v>46058</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>54</v>
       </c>
-      <c r="B113" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="C113" s="90" t="s">
+      <c r="B113" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" s="88" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="12"/>
@@ -5051,18 +5027,18 @@
       <c r="J113" s="16"/>
       <c r="K113" s="1"/>
       <c r="L113" s="39"/>
-      <c r="M113" s="74" t="s">
+      <c r="M113" s="73" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13">
         <v>55</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C114" s="88" t="s">
+      <c r="C114" s="86" t="s">
         <v>146</v>
       </c>
       <c r="D114" s="10"/>
@@ -5080,14 +5056,14 @@
       </c>
       <c r="M114" s="30"/>
     </row>
-    <row r="115" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>55</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="88" t="s">
+      <c r="C115" s="86" t="s">
         <v>145</v>
       </c>
       <c r="D115" s="11"/>
@@ -5101,14 +5077,14 @@
       <c r="L115" s="36"/>
       <c r="M115" s="35"/>
     </row>
-    <row r="116" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>56</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C116" s="88" t="s">
+      <c r="C116" s="86" t="s">
         <v>148</v>
       </c>
       <c r="D116" s="12"/>
@@ -5126,14 +5102,14 @@
       </c>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>56</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C117" s="88" t="s">
+      <c r="C117" s="86" t="s">
         <v>147</v>
       </c>
       <c r="D117" s="12"/>
@@ -5147,14 +5123,14 @@
       <c r="L117" s="39"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>57</v>
       </c>
-      <c r="B118" s="77" t="s">
+      <c r="B118" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C118" s="88" t="s">
+      <c r="C118" s="86" t="s">
         <v>154</v>
       </c>
       <c r="D118" s="12"/>
@@ -5172,14 +5148,14 @@
       </c>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>57</v>
       </c>
-      <c r="B119" s="77" t="s">
+      <c r="B119" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="88" t="s">
+      <c r="C119" s="86" t="s">
         <v>150</v>
       </c>
       <c r="D119" s="12"/>
@@ -5193,14 +5169,14 @@
       <c r="L119" s="39"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>57</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="88" t="s">
+      <c r="C120" s="86" t="s">
         <v>143</v>
       </c>
       <c r="D120" s="12"/>
@@ -5214,15 +5190,15 @@
       <c r="L120" s="39"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>58</v>
       </c>
-      <c r="B121" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="C121" s="87" t="s">
-        <v>278</v>
+      <c r="B121" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" s="85" t="s">
+        <v>277</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="15"/>
@@ -5231,7 +5207,7 @@
       <c r="H121" s="53"/>
       <c r="I121" s="18"/>
       <c r="J121" s="19"/>
-      <c r="K121" s="66" t="s">
+      <c r="K121" s="2" t="s">
         <v>269</v>
       </c>
       <c r="L121" s="36" t="s">
@@ -5239,15 +5215,15 @@
       </c>
       <c r="M121" s="35"/>
     </row>
-    <row r="122" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13">
         <v>58</v>
       </c>
-      <c r="B122" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="C122" s="87" t="s">
-        <v>277</v>
+      <c r="B122" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="C122" s="85" t="s">
+        <v>276</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="14"/>
@@ -5260,14 +5236,14 @@
       <c r="L122" s="31"/>
       <c r="M122" s="30"/>
     </row>
-    <row r="123" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>59</v>
       </c>
-      <c r="B123" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C123" s="88" t="s">
+      <c r="B123" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123" s="86" t="s">
         <v>99</v>
       </c>
       <c r="D123" s="8">
@@ -5295,7 +5271,7 @@
         <f>G123-H123-I123</f>
         <v>0</v>
       </c>
-      <c r="K123" s="69" t="s">
+      <c r="K123" s="68" t="s">
         <v>100</v>
       </c>
       <c r="L123" s="36" t="s">
@@ -5308,14 +5284,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>59</v>
       </c>
-      <c r="B124" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C124" s="88" t="s">
+      <c r="B124" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C124" s="86" t="s">
         <v>97</v>
       </c>
       <c r="D124" s="12"/>
@@ -5331,14 +5307,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>59</v>
       </c>
-      <c r="B125" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="C125" s="88" t="s">
+      <c r="B125" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="86" t="s">
         <v>98</v>
       </c>
       <c r="D125" s="12"/>
@@ -5352,14 +5328,14 @@
       <c r="L125" s="36"/>
       <c r="M125" s="40"/>
     </row>
-    <row r="126" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>60</v>
       </c>
-      <c r="B126" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="C126" s="87" t="s">
+      <c r="B126" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" s="85" t="s">
         <v>255</v>
       </c>
       <c r="D126" s="12"/>
@@ -5377,14 +5353,14 @@
       </c>
       <c r="M126" s="40"/>
     </row>
-    <row r="127" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>60</v>
       </c>
-      <c r="B127" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="C127" s="87" t="s">
+      <c r="B127" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="C127" s="85" t="s">
         <v>256</v>
       </c>
       <c r="D127" s="12"/>
@@ -5398,14 +5374,14 @@
       <c r="L127" s="36"/>
       <c r="M127" s="40"/>
     </row>
-    <row r="128" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>61</v>
       </c>
-      <c r="B128" s="78" t="s">
+      <c r="B128" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="88" t="s">
+      <c r="C128" s="86" t="s">
         <v>131</v>
       </c>
       <c r="D128" s="16"/>
@@ -5423,14 +5399,14 @@
       </c>
       <c r="M128" s="5"/>
     </row>
-    <row r="129" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13">
         <v>61</v>
       </c>
-      <c r="B129" s="78" t="s">
+      <c r="B129" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C129" s="88" t="s">
+      <c r="C129" s="86" t="s">
         <v>128</v>
       </c>
       <c r="D129" s="10"/>
@@ -5444,14 +5420,14 @@
       <c r="L129" s="31"/>
       <c r="M129" s="30"/>
     </row>
-    <row r="130" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>62</v>
       </c>
-      <c r="B130" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="C130" s="88" t="s">
+      <c r="B130" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="C130" s="86" t="s">
         <v>224</v>
       </c>
       <c r="D130" s="8"/>
@@ -5469,14 +5445,14 @@
       </c>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>62</v>
       </c>
-      <c r="B131" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="C131" s="88" t="s">
+      <c r="B131" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" s="86" t="s">
         <v>223</v>
       </c>
       <c r="D131" s="12"/>
@@ -5490,15 +5466,15 @@
       <c r="L131" s="39"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13">
         <v>63</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B132" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C132" s="87" t="s">
-        <v>295</v>
+      <c r="C132" s="85" t="s">
+        <v>294</v>
       </c>
       <c r="D132" s="10">
         <v>3000</v>
@@ -5526,15 +5502,15 @@
       </c>
       <c r="M132" s="30"/>
     </row>
-    <row r="133" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>63</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B133" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C133" s="87" t="s">
-        <v>294</v>
+      <c r="C133" s="85" t="s">
+        <v>293</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="15"/>
@@ -5547,15 +5523,15 @@
       <c r="L133" s="29"/>
       <c r="M133" s="35"/>
     </row>
-    <row r="134" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>64</v>
       </c>
-      <c r="B134" s="80" t="s">
+      <c r="B134" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C134" s="87" t="s">
-        <v>296</v>
+      <c r="C134" s="85" t="s">
+        <v>295</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="13"/>
@@ -5568,15 +5544,15 @@
       <c r="L134" s="39"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>64</v>
       </c>
-      <c r="B135" s="80" t="s">
+      <c r="B135" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C135" s="87" t="s">
-        <v>297</v>
+      <c r="C135" s="85" t="s">
+        <v>296</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="13"/>
@@ -5589,15 +5565,15 @@
       <c r="L135" s="39"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>65</v>
       </c>
-      <c r="B136" s="80" t="s">
+      <c r="B136" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C136" s="87" t="s">
-        <v>298</v>
+      <c r="C136" s="85" t="s">
+        <v>297</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="13"/>
@@ -5609,17 +5585,16 @@
       <c r="K136" s="1"/>
       <c r="L136" s="39"/>
       <c r="M136" s="1"/>
-      <c r="N136" s="66"/>
-    </row>
-    <row r="137" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>65</v>
       </c>
-      <c r="B137" s="80" t="s">
+      <c r="B137" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C137" s="87" t="s">
-        <v>299</v>
+      <c r="C137" s="85" t="s">
+        <v>298</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="13"/>
@@ -5631,17 +5606,16 @@
       <c r="K137" s="1"/>
       <c r="L137" s="39"/>
       <c r="M137" s="1"/>
-      <c r="N137" s="66"/>
-    </row>
-    <row r="138" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13">
         <v>66</v>
       </c>
-      <c r="B138" s="80" t="s">
+      <c r="B138" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C138" s="87" t="s">
-        <v>302</v>
+      <c r="C138" s="85" t="s">
+        <v>301</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="3"/>
@@ -5653,17 +5627,16 @@
       <c r="K138" s="5"/>
       <c r="L138" s="45"/>
       <c r="M138" s="5"/>
-      <c r="N138" s="66"/>
-    </row>
-    <row r="139" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>66</v>
       </c>
-      <c r="B139" s="80" t="s">
+      <c r="B139" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C139" s="87" t="s">
-        <v>301</v>
+      <c r="C139" s="85" t="s">
+        <v>300</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="6"/>
@@ -5675,17 +5648,16 @@
       <c r="K139" s="9"/>
       <c r="L139" s="36"/>
       <c r="M139" s="9"/>
-      <c r="N139" s="66"/>
-    </row>
-    <row r="140" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>67</v>
       </c>
-      <c r="B140" s="80" t="s">
+      <c r="B140" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="87" t="s">
-        <v>304</v>
+      <c r="C140" s="85" t="s">
+        <v>303</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="3"/>
@@ -5697,17 +5669,16 @@
       <c r="K140" s="5"/>
       <c r="L140" s="45"/>
       <c r="M140" s="5"/>
-      <c r="N140" s="66"/>
-    </row>
-    <row r="141" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>67</v>
       </c>
-      <c r="B141" s="80" t="s">
+      <c r="B141" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C141" s="87" t="s">
-        <v>303</v>
+      <c r="C141" s="85" t="s">
+        <v>302</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="3"/>
@@ -5719,17 +5690,16 @@
       <c r="K141" s="5"/>
       <c r="L141" s="45"/>
       <c r="M141" s="5"/>
-      <c r="N141" s="66"/>
-    </row>
-    <row r="142" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>68</v>
       </c>
-      <c r="B142" s="80" t="s">
+      <c r="B142" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C142" s="87" t="s">
-        <v>309</v>
+      <c r="C142" s="85" t="s">
+        <v>308</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="3"/>
@@ -5741,17 +5711,16 @@
       <c r="K142" s="5"/>
       <c r="L142" s="45"/>
       <c r="M142" s="5"/>
-      <c r="N142" s="66"/>
-    </row>
-    <row r="143" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>68</v>
       </c>
-      <c r="B143" s="80" t="s">
+      <c r="B143" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C143" s="87" t="s">
-        <v>305</v>
+      <c r="C143" s="85" t="s">
+        <v>304</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="3"/>
@@ -5763,17 +5732,16 @@
       <c r="K143" s="5"/>
       <c r="L143" s="45"/>
       <c r="M143" s="5"/>
-      <c r="N143" s="66"/>
-    </row>
-    <row r="144" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>69</v>
       </c>
-      <c r="B144" s="80" t="s">
+      <c r="B144" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C144" s="87" t="s">
-        <v>311</v>
+      <c r="C144" s="85" t="s">
+        <v>310</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="3"/>
@@ -5785,17 +5753,16 @@
       <c r="K144" s="5"/>
       <c r="L144" s="45"/>
       <c r="M144" s="5"/>
-      <c r="N144" s="66"/>
-    </row>
-    <row r="145" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>69</v>
       </c>
-      <c r="B145" s="80" t="s">
+      <c r="B145" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C145" s="87" t="s">
-        <v>300</v>
+      <c r="C145" s="85" t="s">
+        <v>299</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="3"/>
@@ -5807,17 +5774,16 @@
       <c r="K145" s="5"/>
       <c r="L145" s="45"/>
       <c r="M145" s="5"/>
-      <c r="N145" s="66"/>
-    </row>
-    <row r="146" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>70</v>
       </c>
-      <c r="B146" s="80" t="s">
+      <c r="B146" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C146" s="87" t="s">
-        <v>312</v>
+      <c r="C146" s="85" t="s">
+        <v>311</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="3"/>
@@ -5829,17 +5795,16 @@
       <c r="K146" s="5"/>
       <c r="L146" s="45"/>
       <c r="M146" s="5"/>
-      <c r="N146" s="66"/>
-    </row>
-    <row r="147" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>70</v>
       </c>
-      <c r="B147" s="80" t="s">
+      <c r="B147" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C147" s="87" t="s">
-        <v>310</v>
+      <c r="C147" s="85" t="s">
+        <v>309</v>
       </c>
       <c r="D147" s="16"/>
       <c r="E147" s="3"/>
@@ -5851,17 +5816,16 @@
       <c r="K147" s="5"/>
       <c r="L147" s="45"/>
       <c r="M147" s="5"/>
-      <c r="N147" s="66"/>
-    </row>
-    <row r="148" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="13">
         <v>71</v>
       </c>
-      <c r="B148" s="80" t="s">
+      <c r="B148" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C148" s="87" t="s">
-        <v>314</v>
+      <c r="C148" s="85" t="s">
+        <v>313</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="3"/>
@@ -5873,17 +5837,16 @@
       <c r="K148" s="5"/>
       <c r="L148" s="45"/>
       <c r="M148" s="5"/>
-      <c r="N148" s="66"/>
-    </row>
-    <row r="149" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>71</v>
       </c>
-      <c r="B149" s="80" t="s">
+      <c r="B149" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C149" s="87" t="s">
-        <v>313</v>
+      <c r="C149" s="85" t="s">
+        <v>312</v>
       </c>
       <c r="D149" s="22"/>
       <c r="E149" s="17"/>
@@ -5895,17 +5858,16 @@
       <c r="K149" s="9"/>
       <c r="L149" s="36"/>
       <c r="M149" s="51"/>
-      <c r="N149" s="66"/>
-    </row>
-    <row r="150" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>72</v>
       </c>
-      <c r="B150" s="80" t="s">
+      <c r="B150" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C150" s="87" t="s">
-        <v>308</v>
+      <c r="C150" s="85" t="s">
+        <v>307</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="3"/>
@@ -5917,17 +5879,16 @@
       <c r="K150" s="5"/>
       <c r="L150" s="45"/>
       <c r="M150" s="5"/>
-      <c r="N150" s="66"/>
-    </row>
-    <row r="151" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>72</v>
       </c>
-      <c r="B151" s="80" t="s">
+      <c r="B151" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C151" s="87" t="s">
-        <v>315</v>
+      <c r="C151" s="85" t="s">
+        <v>314</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="3"/>
@@ -5939,17 +5900,16 @@
       <c r="K151" s="5"/>
       <c r="L151" s="45"/>
       <c r="M151" s="5"/>
-      <c r="N151" s="66"/>
-    </row>
-    <row r="152" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
         <v>73</v>
       </c>
-      <c r="B152" s="80" t="s">
+      <c r="B152" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C152" s="87" t="s">
-        <v>307</v>
+      <c r="C152" s="85" t="s">
+        <v>306</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="14"/>
@@ -5961,17 +5921,16 @@
       <c r="K152" s="30"/>
       <c r="L152" s="31"/>
       <c r="M152" s="30"/>
-      <c r="N152" s="66"/>
-    </row>
-    <row r="153" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>73</v>
       </c>
-      <c r="B153" s="80" t="s">
+      <c r="B153" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C153" s="87" t="s">
-        <v>306</v>
+      <c r="C153" s="85" t="s">
+        <v>305</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="19"/>
@@ -5983,17 +5942,16 @@
       <c r="K153" s="9"/>
       <c r="L153" s="36"/>
       <c r="M153" s="53"/>
-      <c r="N153" s="66"/>
-    </row>
-    <row r="154" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>74</v>
       </c>
-      <c r="B154" s="80" t="s">
+      <c r="B154" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C154" s="87" t="s">
-        <v>317</v>
+      <c r="C154" s="85" t="s">
+        <v>316</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="3"/>
@@ -6005,17 +5963,16 @@
       <c r="K154" s="5"/>
       <c r="L154" s="45"/>
       <c r="M154" s="5"/>
-      <c r="N154" s="66"/>
-    </row>
-    <row r="155" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>74</v>
       </c>
-      <c r="B155" s="80" t="s">
+      <c r="B155" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C155" s="87" t="s">
-        <v>316</v>
+      <c r="C155" s="85" t="s">
+        <v>315</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="3"/>
@@ -6027,17 +5984,16 @@
       <c r="K155" s="5"/>
       <c r="L155" s="45"/>
       <c r="M155" s="5"/>
-      <c r="N155" s="66"/>
-    </row>
-    <row r="156" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>75</v>
       </c>
-      <c r="B156" s="80" t="s">
+      <c r="B156" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C156" s="87" t="s">
-        <v>318</v>
+      <c r="C156" s="85" t="s">
+        <v>317</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="3"/>
@@ -6049,17 +6005,16 @@
       <c r="K156" s="5"/>
       <c r="L156" s="45"/>
       <c r="M156" s="5"/>
-      <c r="N156" s="66"/>
-    </row>
-    <row r="157" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>75</v>
       </c>
-      <c r="B157" s="80" t="s">
+      <c r="B157" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C157" s="87" t="s">
-        <v>319</v>
+      <c r="C157" s="85" t="s">
+        <v>318</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="3"/>
@@ -6071,17 +6026,16 @@
       <c r="K157" s="5"/>
       <c r="L157" s="45"/>
       <c r="M157" s="5"/>
-      <c r="N157" s="66"/>
-    </row>
-    <row r="158" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
         <v>76</v>
       </c>
-      <c r="B158" s="80" t="s">
+      <c r="B158" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="87" t="s">
-        <v>320</v>
+      <c r="C158" s="85" t="s">
+        <v>319</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="14"/>
@@ -6093,17 +6047,16 @@
       <c r="K158" s="30"/>
       <c r="L158" s="31"/>
       <c r="M158" s="30"/>
-      <c r="N158" s="66"/>
-    </row>
-    <row r="159" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>76</v>
       </c>
-      <c r="B159" s="80" t="s">
+      <c r="B159" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C159" s="87" t="s">
-        <v>322</v>
+      <c r="C159" s="85" t="s">
+        <v>321</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="19"/>
@@ -6115,17 +6068,16 @@
       <c r="K159" s="53"/>
       <c r="L159" s="29"/>
       <c r="M159" s="53"/>
-      <c r="N159" s="66"/>
-    </row>
-    <row r="160" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>76</v>
       </c>
-      <c r="B160" s="80" t="s">
+      <c r="B160" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C160" s="87" t="s">
-        <v>321</v>
+      <c r="C160" s="85" t="s">
+        <v>320</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="3"/>
@@ -6137,17 +6089,16 @@
       <c r="K160" s="5"/>
       <c r="L160" s="45"/>
       <c r="M160" s="5"/>
-      <c r="N160" s="66"/>
-    </row>
-    <row r="161" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="38">
         <v>77</v>
       </c>
-      <c r="B161" s="77" t="s">
+      <c r="B161" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C161" s="87" t="s">
-        <v>361</v>
+      <c r="C161" s="85" t="s">
+        <v>360</v>
       </c>
       <c r="D161" s="16">
         <v>3000</v>
@@ -6174,14 +6125,14 @@
       </c>
       <c r="M161" s="46"/>
     </row>
-    <row r="162" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="38">
         <v>77</v>
       </c>
-      <c r="B162" s="77" t="s">
+      <c r="B162" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C162" s="87" t="s">
+      <c r="C162" s="85" t="s">
         <v>73</v>
       </c>
       <c r="D162" s="16"/>
@@ -6195,14 +6146,14 @@
       <c r="L162" s="45"/>
       <c r="M162" s="46"/>
     </row>
-    <row r="163" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="38">
         <v>78</v>
       </c>
-      <c r="B163" s="77" t="s">
+      <c r="B163" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="87" t="s">
+      <c r="C163" s="85" t="s">
         <v>74</v>
       </c>
       <c r="D163" s="12"/>
@@ -6213,14 +6164,14 @@
       <c r="L163" s="39"/>
       <c r="M163" s="40"/>
     </row>
-    <row r="164" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="38">
         <v>78</v>
       </c>
-      <c r="B164" s="77" t="s">
+      <c r="B164" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C164" s="87" t="s">
+      <c r="C164" s="85" t="s">
         <v>75</v>
       </c>
       <c r="D164" s="12"/>
@@ -6231,14 +6182,14 @@
       <c r="L164" s="39"/>
       <c r="M164" s="40"/>
     </row>
-    <row r="165" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>79</v>
       </c>
-      <c r="B165" s="77" t="s">
+      <c r="B165" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C165" s="87" t="s">
+      <c r="C165" s="85" t="s">
         <v>76</v>
       </c>
       <c r="D165" s="12">
@@ -6265,14 +6216,14 @@
       </c>
       <c r="M165" s="40"/>
     </row>
-    <row r="166" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>79</v>
       </c>
-      <c r="B166" s="77" t="s">
+      <c r="B166" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C166" s="87" t="s">
+      <c r="C166" s="85" t="s">
         <v>77</v>
       </c>
       <c r="D166" s="12"/>
@@ -6283,14 +6234,14 @@
       <c r="L166" s="39"/>
       <c r="M166" s="40"/>
     </row>
-    <row r="167" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>80</v>
       </c>
-      <c r="B167" s="77" t="s">
+      <c r="B167" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="87" t="s">
+      <c r="C167" s="85" t="s">
         <v>79</v>
       </c>
       <c r="D167" s="12"/>
@@ -6301,14 +6252,14 @@
       <c r="L167" s="39"/>
       <c r="M167" s="40"/>
     </row>
-    <row r="168" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>80</v>
       </c>
-      <c r="B168" s="77" t="s">
+      <c r="B168" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C168" s="87" t="s">
+      <c r="C168" s="85" t="s">
         <v>78</v>
       </c>
       <c r="D168" s="12"/>
@@ -6319,14 +6270,14 @@
       <c r="L168" s="39"/>
       <c r="M168" s="40"/>
     </row>
-    <row r="169" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>81</v>
       </c>
-      <c r="B169" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="C169" s="89" t="s">
+      <c r="B169" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C169" s="87" t="s">
         <v>89</v>
       </c>
       <c r="D169" s="12">
@@ -6354,14 +6305,14 @@
       </c>
       <c r="M169" s="40"/>
     </row>
-    <row r="170" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>81</v>
       </c>
-      <c r="B170" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="C170" s="89" t="s">
+      <c r="B170" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" s="87" t="s">
         <v>91</v>
       </c>
       <c r="D170" s="12"/>
@@ -6372,14 +6323,14 @@
       <c r="L170" s="39"/>
       <c r="M170" s="40"/>
     </row>
-    <row r="171" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>81</v>
       </c>
-      <c r="B171" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="C171" s="89" t="s">
+      <c r="B171" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" s="87" t="s">
         <v>90</v>
       </c>
       <c r="D171" s="12"/>
@@ -6390,15 +6341,15 @@
       <c r="L171" s="39"/>
       <c r="M171" s="40"/>
     </row>
-    <row r="172" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>82</v>
       </c>
-      <c r="B172" s="80" t="s">
+      <c r="B172" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C172" s="88" t="s">
-        <v>324</v>
+      <c r="C172" s="86" t="s">
+        <v>323</v>
       </c>
       <c r="D172" s="12">
         <v>3000</v>
@@ -6424,15 +6375,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>82</v>
       </c>
-      <c r="B173" s="80" t="s">
+      <c r="B173" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C173" s="88" t="s">
-        <v>323</v>
+      <c r="C173" s="86" t="s">
+        <v>322</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="13"/>
@@ -6440,15 +6391,15 @@
       <c r="J173" s="13"/>
       <c r="L173" s="39"/>
     </row>
-    <row r="174" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>83</v>
       </c>
-      <c r="B174" s="80" t="s">
+      <c r="B174" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="88" t="s">
-        <v>327</v>
+      <c r="C174" s="86" t="s">
+        <v>326</v>
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="13"/>
@@ -6456,15 +6407,15 @@
       <c r="J174" s="13"/>
       <c r="L174" s="39"/>
     </row>
-    <row r="175" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>83</v>
       </c>
-      <c r="B175" s="80" t="s">
+      <c r="B175" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="88" t="s">
-        <v>325</v>
+      <c r="C175" s="86" t="s">
+        <v>324</v>
       </c>
       <c r="D175" s="12"/>
       <c r="E175" s="13"/>
@@ -6472,15 +6423,15 @@
       <c r="J175" s="13"/>
       <c r="L175" s="39"/>
     </row>
-    <row r="176" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>83</v>
       </c>
-      <c r="B176" s="80" t="s">
+      <c r="B176" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C176" s="88" t="s">
-        <v>326</v>
+      <c r="C176" s="86" t="s">
+        <v>325</v>
       </c>
       <c r="D176" s="12"/>
       <c r="E176" s="13"/>
@@ -6488,14 +6439,14 @@
       <c r="J176" s="13"/>
       <c r="L176" s="39"/>
     </row>
-    <row r="177" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>84</v>
       </c>
-      <c r="B177" s="80" t="s">
+      <c r="B177" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C177" s="88" t="s">
+      <c r="C177" s="86" t="s">
         <v>124</v>
       </c>
       <c r="D177" s="12"/>
@@ -6509,14 +6460,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>84</v>
       </c>
-      <c r="B178" s="80" t="s">
+      <c r="B178" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C178" s="88" t="s">
+      <c r="C178" s="86" t="s">
         <v>123</v>
       </c>
       <c r="D178" s="12"/>
@@ -6525,14 +6476,14 @@
       <c r="J178" s="13"/>
       <c r="L178" s="39"/>
     </row>
-    <row r="179" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>85</v>
       </c>
-      <c r="B179" s="80" t="s">
+      <c r="B179" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C179" s="88" t="s">
+      <c r="C179" s="86" t="s">
         <v>140</v>
       </c>
       <c r="D179" s="12"/>
@@ -6541,25 +6492,25 @@
       <c r="J179" s="13"/>
       <c r="L179" s="39"/>
     </row>
-    <row r="180" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>85</v>
       </c>
-      <c r="B180" s="80" t="s">
+      <c r="B180" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C180" s="88" t="s">
+      <c r="C180" s="86" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>86</v>
       </c>
-      <c r="B181" s="80" t="s">
+      <c r="B181" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C181" s="88" t="s">
+      <c r="C181" s="86" t="s">
         <v>142</v>
       </c>
       <c r="D181" s="12"/>
@@ -6568,14 +6519,14 @@
       <c r="J181" s="13"/>
       <c r="L181" s="39"/>
     </row>
-    <row r="182" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>86</v>
       </c>
-      <c r="B182" s="80" t="s">
+      <c r="B182" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C182" s="88" t="s">
+      <c r="C182" s="86" t="s">
         <v>141</v>
       </c>
       <c r="D182" s="12"/>
@@ -6584,14 +6535,14 @@
       <c r="J182" s="13"/>
       <c r="L182" s="39"/>
     </row>
-    <row r="183" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>87</v>
       </c>
-      <c r="B183" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="C183" s="87" t="s">
+      <c r="B183" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="85" t="s">
         <v>62</v>
       </c>
       <c r="D183" s="12"/>
@@ -6602,14 +6553,14 @@
       <c r="L183" s="39"/>
       <c r="M183" s="40"/>
     </row>
-    <row r="184" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>87</v>
       </c>
-      <c r="B184" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C184" s="87" t="s">
+      <c r="B184" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C184" s="85" t="s">
         <v>88</v>
       </c>
       <c r="D184" s="16"/>
@@ -6628,14 +6579,14 @@
       <c r="M184" s="46"/>
       <c r="N184" s="5"/>
     </row>
-    <row r="185" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>88</v>
       </c>
-      <c r="B185" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C185" s="87" t="s">
+      <c r="B185" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C185" s="85" t="s">
         <v>58</v>
       </c>
       <c r="D185" s="12"/>
@@ -6646,14 +6597,14 @@
       <c r="L185" s="39"/>
       <c r="M185" s="40"/>
     </row>
-    <row r="186" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>88</v>
       </c>
-      <c r="B186" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C186" s="87" t="s">
+      <c r="B186" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C186" s="85" t="s">
         <v>59</v>
       </c>
       <c r="D186" s="12"/>
@@ -6664,14 +6615,14 @@
       <c r="L186" s="39"/>
       <c r="M186" s="40"/>
     </row>
-    <row r="187" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13">
         <v>89</v>
       </c>
-      <c r="B187" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C187" s="87" t="s">
+      <c r="B187" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C187" s="85" t="s">
         <v>60</v>
       </c>
       <c r="D187" s="16"/>
@@ -6686,14 +6637,14 @@
       <c r="M187" s="46"/>
       <c r="N187" s="5"/>
     </row>
-    <row r="188" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>89</v>
       </c>
-      <c r="B188" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C188" s="87" t="s">
+      <c r="B188" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C188" s="85" t="s">
         <v>94</v>
       </c>
       <c r="D188" s="8"/>
@@ -6708,14 +6659,14 @@
       <c r="M188" s="32"/>
       <c r="N188" s="35"/>
     </row>
-    <row r="189" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>90</v>
       </c>
-      <c r="B189" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="C189" s="87" t="s">
+      <c r="B189" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C189" s="85" t="s">
         <v>95</v>
       </c>
       <c r="D189" s="11"/>
@@ -6729,14 +6680,14 @@
       <c r="L189" s="36"/>
       <c r="M189" s="37"/>
     </row>
-    <row r="190" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>90</v>
       </c>
-      <c r="B190" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="C190" s="87" t="s">
+      <c r="B190" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C190" s="85" t="s">
         <v>61</v>
       </c>
       <c r="D190" s="11"/>
@@ -6750,14 +6701,14 @@
       <c r="L190" s="36"/>
       <c r="M190" s="37"/>
     </row>
-    <row r="191" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>90</v>
       </c>
-      <c r="B191" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="C191" s="87" t="s">
+      <c r="B191" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" s="85" t="s">
         <v>96</v>
       </c>
       <c r="D191" s="11"/>
@@ -6771,14 +6722,14 @@
       <c r="L191" s="36"/>
       <c r="M191" s="37"/>
     </row>
-    <row r="192" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="13">
         <v>91</v>
       </c>
-      <c r="B192" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="C192" s="87" t="s">
+      <c r="B192" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C192" s="85" t="s">
         <v>15</v>
       </c>
       <c r="D192" s="16">
@@ -6804,14 +6755,14 @@
       </c>
       <c r="M192" s="46"/>
     </row>
-    <row r="193" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>91</v>
       </c>
-      <c r="B193" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="C193" s="87" t="s">
+      <c r="B193" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C193" s="85" t="s">
         <v>16</v>
       </c>
       <c r="D193" s="8"/>
@@ -6826,14 +6777,14 @@
       <c r="M193" s="32"/>
       <c r="N193" s="9"/>
     </row>
-    <row r="194" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>92</v>
       </c>
-      <c r="B194" s="83" t="s">
+      <c r="B194" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C194" s="89" t="s">
+      <c r="C194" s="87" t="s">
         <v>174</v>
       </c>
       <c r="D194" s="12">
@@ -6860,14 +6811,14 @@
       </c>
       <c r="M194" s="40"/>
     </row>
-    <row r="195" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>92</v>
       </c>
-      <c r="B195" s="83" t="s">
+      <c r="B195" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C195" s="89" t="s">
+      <c r="C195" s="87" t="s">
         <v>173</v>
       </c>
       <c r="D195" s="12"/>
@@ -6878,14 +6829,14 @@
       <c r="L195" s="39"/>
       <c r="M195" s="40"/>
     </row>
-    <row r="196" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="13">
         <v>93</v>
       </c>
-      <c r="B196" s="83" t="s">
+      <c r="B196" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C196" s="89" t="s">
+      <c r="C196" s="87" t="s">
         <v>176</v>
       </c>
       <c r="D196" s="16"/>
@@ -6899,14 +6850,14 @@
       <c r="L196" s="45"/>
       <c r="M196" s="46"/>
     </row>
-    <row r="197" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="13">
         <v>93</v>
       </c>
-      <c r="B197" s="83" t="s">
+      <c r="B197" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C197" s="89" t="s">
+      <c r="C197" s="87" t="s">
         <v>175</v>
       </c>
       <c r="D197" s="8"/>
@@ -6920,14 +6871,14 @@
       <c r="L197" s="29"/>
       <c r="M197" s="32"/>
     </row>
-    <row r="198" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="13">
         <v>94</v>
       </c>
-      <c r="B198" s="83" t="s">
+      <c r="B198" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C198" s="89" t="s">
+      <c r="C198" s="87" t="s">
         <v>178</v>
       </c>
       <c r="D198" s="12"/>
@@ -6938,14 +6889,14 @@
       <c r="L198" s="39"/>
       <c r="M198" s="40"/>
     </row>
-    <row r="199" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="13">
         <v>94</v>
       </c>
-      <c r="B199" s="83" t="s">
+      <c r="B199" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C199" s="89" t="s">
+      <c r="C199" s="87" t="s">
         <v>177</v>
       </c>
       <c r="D199" s="12"/>
@@ -6956,14 +6907,14 @@
       <c r="L199" s="39"/>
       <c r="M199" s="40"/>
     </row>
-    <row r="200" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="13">
         <v>95</v>
       </c>
-      <c r="B200" s="80" t="s">
+      <c r="B200" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C200" s="88" t="s">
+      <c r="C200" s="86" t="s">
         <v>259</v>
       </c>
       <c r="D200" s="16"/>
@@ -6981,14 +6932,14 @@
       </c>
       <c r="M200" s="5"/>
     </row>
-    <row r="201" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>95</v>
       </c>
-      <c r="B201" s="80" t="s">
+      <c r="B201" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C201" s="88" t="s">
+      <c r="C201" s="86" t="s">
         <v>231</v>
       </c>
       <c r="D201" s="8"/>
@@ -7002,14 +6953,14 @@
       <c r="L201" s="29"/>
       <c r="M201" s="9"/>
     </row>
-    <row r="202" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="13">
         <v>96</v>
       </c>
-      <c r="B202" s="80" t="s">
+      <c r="B202" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C202" s="88" t="s">
+      <c r="C202" s="86" t="s">
         <v>232</v>
       </c>
       <c r="D202" s="12"/>
@@ -7018,14 +6969,14 @@
       <c r="J202" s="13"/>
       <c r="L202" s="39"/>
     </row>
-    <row r="203" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="13">
         <v>96</v>
       </c>
-      <c r="B203" s="80" t="s">
+      <c r="B203" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C203" s="88" t="s">
+      <c r="C203" s="86" t="s">
         <v>233</v>
       </c>
       <c r="D203" s="12"/>
@@ -7034,14 +6985,14 @@
       <c r="J203" s="13"/>
       <c r="L203" s="39"/>
     </row>
-    <row r="204" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="13">
         <v>97</v>
       </c>
-      <c r="B204" s="80" t="s">
+      <c r="B204" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C204" s="88" t="s">
+      <c r="C204" s="86" t="s">
         <v>258</v>
       </c>
       <c r="D204" s="12"/>
@@ -7050,14 +7001,14 @@
       <c r="J204" s="13"/>
       <c r="L204" s="39"/>
     </row>
-    <row r="205" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="13">
         <v>97</v>
       </c>
-      <c r="B205" s="80" t="s">
+      <c r="B205" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C205" s="88" t="s">
+      <c r="C205" s="86" t="s">
         <v>234</v>
       </c>
       <c r="D205" s="12"/>
@@ -7066,14 +7017,14 @@
       <c r="J205" s="13"/>
       <c r="L205" s="39"/>
     </row>
-    <row r="206" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="13">
         <v>98</v>
       </c>
-      <c r="B206" s="80" t="s">
+      <c r="B206" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C206" s="88" t="s">
+      <c r="C206" s="86" t="s">
         <v>235</v>
       </c>
       <c r="D206" s="16"/>
@@ -7087,14 +7038,14 @@
       <c r="L206" s="45"/>
       <c r="M206" s="5"/>
     </row>
-    <row r="207" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="13">
         <v>98</v>
       </c>
-      <c r="B207" s="80" t="s">
+      <c r="B207" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C207" s="88" t="s">
+      <c r="C207" s="86" t="s">
         <v>236</v>
       </c>
       <c r="D207" s="8"/>
@@ -7104,18 +7055,17 @@
       <c r="H207" s="9"/>
       <c r="I207" s="8"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="66"/>
       <c r="L207" s="29"/>
       <c r="M207" s="9"/>
     </row>
-    <row r="208" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="13">
         <v>99</v>
       </c>
-      <c r="B208" s="80" t="s">
+      <c r="B208" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C208" s="88" t="s">
+      <c r="C208" s="86" t="s">
         <v>237</v>
       </c>
       <c r="D208" s="10"/>
@@ -7129,14 +7079,14 @@
       <c r="L208" s="31"/>
       <c r="M208" s="30"/>
     </row>
-    <row r="209" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="13">
         <v>99</v>
       </c>
-      <c r="B209" s="80" t="s">
+      <c r="B209" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C209" s="88" t="s">
+      <c r="C209" s="86" t="s">
         <v>238</v>
       </c>
       <c r="D209" s="22"/>
@@ -7150,14 +7100,14 @@
       <c r="L209" s="61"/>
       <c r="M209" s="51"/>
     </row>
-    <row r="210" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="13">
         <v>100</v>
       </c>
-      <c r="B210" s="80" t="s">
+      <c r="B210" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C210" s="88" t="s">
+      <c r="C210" s="86" t="s">
         <v>240</v>
       </c>
       <c r="D210" s="12"/>
@@ -7166,14 +7116,14 @@
       <c r="J210" s="13"/>
       <c r="L210" s="39"/>
     </row>
-    <row r="211" spans="1:13" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="13">
         <v>100</v>
       </c>
-      <c r="B211" s="80" t="s">
+      <c r="B211" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="C211" s="88" t="s">
+      <c r="C211" s="86" t="s">
         <v>239</v>
       </c>
       <c r="D211" s="12"/>
@@ -7182,14 +7132,14 @@
       <c r="J211" s="13"/>
       <c r="L211" s="39"/>
     </row>
-    <row r="212" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="13">
         <v>101</v>
       </c>
-      <c r="B212" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="C212" s="88" t="s">
+      <c r="B212" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C212" s="86" t="s">
         <v>159</v>
       </c>
       <c r="D212" s="23"/>
@@ -7205,18 +7155,18 @@
       <c r="L212" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="M212" s="71">
+      <c r="M212" s="70">
         <v>46071</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="13">
         <v>101</v>
       </c>
-      <c r="B213" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="C213" s="88" t="s">
+      <c r="B213" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C213" s="86" t="s">
         <v>160</v>
       </c>
       <c r="D213" s="11"/>
@@ -7230,14 +7180,14 @@
       <c r="L213" s="61"/>
       <c r="M213" s="35"/>
     </row>
-    <row r="214" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="13">
         <v>101</v>
       </c>
-      <c r="B214" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="C214" s="88" t="s">
+      <c r="B214" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C214" s="86" t="s">
         <v>161</v>
       </c>
       <c r="D214" s="25"/>
@@ -7251,14 +7201,14 @@
       <c r="L214" s="39"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="13">
         <v>102</v>
       </c>
-      <c r="B215" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="C215" s="87" t="s">
+      <c r="B215" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" s="85" t="s">
         <v>261</v>
       </c>
       <c r="D215" s="25"/>
@@ -7276,14 +7226,14 @@
       </c>
       <c r="M215" s="1"/>
     </row>
-    <row r="216" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="13">
         <v>102</v>
       </c>
-      <c r="B216" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="C216" s="87" t="s">
+      <c r="B216" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" s="85" t="s">
         <v>262</v>
       </c>
       <c r="D216" s="25"/>
@@ -7293,18 +7243,18 @@
       <c r="H216" s="5"/>
       <c r="I216" s="16"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="68"/>
+      <c r="K216" s="67"/>
       <c r="L216" s="39"/>
       <c r="M216" s="1"/>
     </row>
-    <row r="217" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="13">
         <v>102</v>
       </c>
-      <c r="B217" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="C217" s="87" t="s">
+      <c r="B217" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C217" s="85" t="s">
         <v>260</v>
       </c>
       <c r="D217" s="25"/>
@@ -7318,14 +7268,14 @@
       <c r="L217" s="39"/>
       <c r="M217" s="1"/>
     </row>
-    <row r="218" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="13">
         <v>103</v>
       </c>
-      <c r="B218" s="79" t="s">
+      <c r="B218" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C218" s="88" t="s">
+      <c r="C218" s="86" t="s">
         <v>115</v>
       </c>
       <c r="D218" s="25">
@@ -7353,14 +7303,14 @@
       </c>
       <c r="M218" s="40"/>
     </row>
-    <row r="219" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="13">
         <v>103</v>
       </c>
-      <c r="B219" s="79" t="s">
+      <c r="B219" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C219" s="88" t="s">
+      <c r="C219" s="86" t="s">
         <v>116</v>
       </c>
       <c r="D219" s="25"/>
@@ -7374,14 +7324,14 @@
       <c r="L219" s="39"/>
       <c r="M219" s="40"/>
     </row>
-    <row r="220" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="13">
         <v>104</v>
       </c>
-      <c r="B220" s="79" t="s">
+      <c r="B220" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C220" s="88" t="s">
+      <c r="C220" s="86" t="s">
         <v>118</v>
       </c>
       <c r="D220" s="25"/>
@@ -7395,14 +7345,14 @@
       <c r="L220" s="39"/>
       <c r="M220" s="1"/>
     </row>
-    <row r="221" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="13">
         <v>104</v>
       </c>
-      <c r="B221" s="79" t="s">
+      <c r="B221" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C221" s="88" t="s">
+      <c r="C221" s="86" t="s">
         <v>117</v>
       </c>
       <c r="D221" s="25"/>
@@ -7416,14 +7366,14 @@
       <c r="L221" s="39"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="13">
         <v>105</v>
       </c>
-      <c r="B222" s="79" t="s">
+      <c r="B222" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C222" s="88" t="s">
+      <c r="C222" s="86" t="s">
         <v>119</v>
       </c>
       <c r="D222" s="25"/>
@@ -7437,14 +7387,14 @@
       <c r="L222" s="39"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="13">
         <v>106</v>
       </c>
-      <c r="B223" s="80" t="s">
+      <c r="B223" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C223" s="88" t="s">
+      <c r="C223" s="86" t="s">
         <v>168</v>
       </c>
       <c r="D223" s="25"/>
@@ -7462,14 +7412,14 @@
       </c>
       <c r="M223" s="1"/>
     </row>
-    <row r="224" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="13">
         <v>106</v>
       </c>
-      <c r="B224" s="80" t="s">
+      <c r="B224" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C224" s="88" t="s">
+      <c r="C224" s="86" t="s">
         <v>167</v>
       </c>
       <c r="D224" s="26"/>
@@ -7483,14 +7433,14 @@
       <c r="L224" s="45"/>
       <c r="M224" s="5"/>
     </row>
-    <row r="225" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="13">
         <v>107</v>
       </c>
-      <c r="B225" s="80" t="s">
+      <c r="B225" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C225" s="88" t="s">
+      <c r="C225" s="86" t="s">
         <v>169</v>
       </c>
       <c r="D225" s="20"/>
@@ -7504,14 +7454,14 @@
       <c r="L225" s="61"/>
       <c r="M225" s="9"/>
     </row>
-    <row r="226" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="13">
         <v>107</v>
       </c>
-      <c r="B226" s="80" t="s">
+      <c r="B226" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C226" s="88" t="s">
+      <c r="C226" s="86" t="s">
         <v>181</v>
       </c>
       <c r="D226" s="25"/>
@@ -7521,18 +7471,17 @@
       <c r="H226" s="5"/>
       <c r="I226" s="16"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="66"/>
       <c r="L226" s="39"/>
       <c r="M226" s="1"/>
     </row>
-    <row r="227" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="13">
         <v>108</v>
       </c>
-      <c r="B227" s="80" t="s">
+      <c r="B227" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C227" s="88" t="s">
+      <c r="C227" s="86" t="s">
         <v>182</v>
       </c>
       <c r="D227" s="21"/>
@@ -7546,14 +7495,14 @@
       <c r="L227" s="45"/>
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="13">
         <v>108</v>
       </c>
-      <c r="B228" s="80" t="s">
+      <c r="B228" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C228" s="88" t="s">
+      <c r="C228" s="86" t="s">
         <v>170</v>
       </c>
       <c r="D228" s="27"/>
@@ -7567,14 +7516,14 @@
       <c r="L228" s="61"/>
       <c r="M228" s="9"/>
     </row>
-    <row r="229" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="13">
         <v>109</v>
       </c>
-      <c r="B229" s="80" t="s">
+      <c r="B229" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C229" s="87" t="s">
+      <c r="C229" s="85" t="s">
         <v>267</v>
       </c>
       <c r="D229" s="26"/>
@@ -7592,15 +7541,15 @@
       </c>
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="13">
         <v>109</v>
       </c>
-      <c r="B230" s="80" t="s">
+      <c r="B230" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="88" t="s">
-        <v>334</v>
+      <c r="C230" s="86" t="s">
+        <v>333</v>
       </c>
       <c r="D230" s="20"/>
       <c r="E230" s="6"/>
@@ -7612,17 +7561,16 @@
       <c r="K230" s="9"/>
       <c r="L230" s="29"/>
       <c r="M230" s="9"/>
-      <c r="N230" s="66"/>
-    </row>
-    <row r="231" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="13">
         <v>110</v>
       </c>
-      <c r="B231" s="80" t="s">
+      <c r="B231" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C231" s="88" t="s">
-        <v>335</v>
+      <c r="C231" s="86" t="s">
+        <v>334</v>
       </c>
       <c r="D231" s="25"/>
       <c r="E231" s="13"/>
@@ -7634,16 +7582,15 @@
       <c r="K231" s="1"/>
       <c r="L231" s="39"/>
       <c r="M231" s="1"/>
-      <c r="N231" s="66"/>
-    </row>
-    <row r="232" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="13">
         <v>110</v>
       </c>
-      <c r="B232" s="80" t="s">
+      <c r="B232" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C232" s="88" t="s">
+      <c r="C232" s="86" t="s">
         <v>268</v>
       </c>
       <c r="D232" s="21"/>
@@ -7656,6 +7603,28 @@
       <c r="K232" s="30"/>
       <c r="L232" s="31"/>
       <c r="M232" s="30"/>
+    </row>
+    <row r="233" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>111</v>
+      </c>
+      <c r="B233" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="C233" s="83" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>111</v>
+      </c>
+      <c r="B234" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="C234" s="83" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N232">
@@ -7672,938 +7641,937 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657AAA7-8798-4964-9A65-6CABA1CEA890}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6328125" style="81" customWidth="1"/>
-    <col min="2" max="6" width="8.36328125" style="92" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" style="81" customWidth="1"/>
-    <col min="8" max="18" width="8.7265625" style="81"/>
-    <col min="19" max="16384" width="8.7265625" style="76"/>
+    <col min="1" max="1" width="55.6640625" style="75" customWidth="1"/>
+    <col min="2" max="6" width="8.33203125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" style="75" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-    </row>
-    <row r="3" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="93" t="s">
-        <v>370</v>
-      </c>
-      <c r="B3" s="93" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="D3" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="E3" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="F3" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="74">
+        <v>1</v>
+      </c>
+      <c r="C4" s="74">
+        <v>2</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="89"/>
+    </row>
+    <row r="5" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74">
+        <v>3</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="89"/>
+    </row>
+    <row r="6" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="74">
+        <v>6</v>
+      </c>
+      <c r="C6" s="74">
+        <v>7</v>
+      </c>
+      <c r="D6" s="74">
+        <v>8</v>
+      </c>
+      <c r="E6" s="74">
+        <v>4</v>
+      </c>
+      <c r="F6" s="74">
+        <v>5</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="89"/>
+    </row>
+    <row r="7" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="74">
+        <v>9</v>
+      </c>
+      <c r="C7" s="74">
+        <v>10</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="89"/>
+    </row>
+    <row r="8" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74">
+        <v>11</v>
+      </c>
+      <c r="E8" s="74">
+        <v>12</v>
+      </c>
+      <c r="F8" s="74">
+        <v>13</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="89"/>
+    </row>
+    <row r="9" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="74">
+        <v>14</v>
+      </c>
+      <c r="C9" s="74">
+        <v>15</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="89"/>
+    </row>
+    <row r="10" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74">
+        <v>16</v>
+      </c>
+      <c r="E10" s="74">
+        <v>17</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="89"/>
+    </row>
+    <row r="11" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="74">
+        <v>19</v>
+      </c>
+      <c r="C11" s="74">
+        <v>20</v>
+      </c>
+      <c r="D11" s="74">
+        <v>21</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74">
+        <v>18</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="89"/>
+    </row>
+    <row r="12" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
+        <v>22</v>
+      </c>
+      <c r="F12" s="74">
+        <v>23</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="89"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="74">
+        <v>24</v>
+      </c>
+      <c r="C13" s="74">
+        <v>25</v>
+      </c>
+      <c r="D13" s="74">
+        <v>26</v>
+      </c>
+      <c r="E13" s="74">
+        <v>27</v>
+      </c>
+      <c r="F13" s="74"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="74">
+        <v>29</v>
+      </c>
+      <c r="C14" s="74">
+        <v>30</v>
+      </c>
+      <c r="D14" s="74">
+        <v>31</v>
+      </c>
+      <c r="E14" s="74">
+        <v>32</v>
+      </c>
+      <c r="F14" s="74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="74">
+        <v>33</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+    </row>
+    <row r="16" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="76" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74">
+        <v>34</v>
+      </c>
+      <c r="D16" s="74">
+        <v>35</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="89"/>
+    </row>
+    <row r="17" spans="1:19" s="77" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="74">
+        <v>38</v>
+      </c>
+      <c r="C17" s="74">
+        <v>39</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74">
+        <v>36</v>
+      </c>
+      <c r="F17" s="74">
+        <v>37</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="89"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74">
+        <v>40</v>
+      </c>
+      <c r="E18" s="74">
+        <v>41</v>
+      </c>
+      <c r="F18" s="74">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="74">
+        <v>43</v>
+      </c>
+      <c r="C19" s="74">
+        <v>44</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74">
+        <v>45</v>
+      </c>
+      <c r="E20" s="74">
+        <v>46</v>
+      </c>
+      <c r="F20" s="74"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="74">
+        <v>48</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="91"/>
-    </row>
-    <row r="4" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="77" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74">
+        <v>49</v>
+      </c>
+      <c r="D22" s="74">
+        <v>50</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74">
+        <v>51</v>
+      </c>
+      <c r="F23" s="74">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="74">
+        <v>53</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74">
+        <v>54</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74">
+        <v>55</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74">
+        <v>56</v>
+      </c>
+      <c r="F27" s="74"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74">
+        <v>59</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74">
+        <v>60</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74">
+        <v>61</v>
+      </c>
+      <c r="F32" s="74"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="79" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="74">
+        <v>63</v>
+      </c>
+      <c r="C34" s="74">
+        <v>64</v>
+      </c>
+      <c r="D34" s="74">
+        <v>65</v>
+      </c>
+      <c r="E34" s="74">
+        <v>66</v>
+      </c>
+      <c r="F34" s="74">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="74">
+        <v>68</v>
+      </c>
+      <c r="C35" s="74">
+        <v>69</v>
+      </c>
+      <c r="D35" s="74">
+        <v>70</v>
+      </c>
+      <c r="E35" s="74">
+        <v>71</v>
+      </c>
+      <c r="F35" s="74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74">
+        <v>73</v>
+      </c>
+      <c r="D36" s="74">
+        <v>74</v>
+      </c>
+      <c r="E36" s="74">
+        <v>75</v>
+      </c>
+      <c r="F36" s="74">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="74">
+        <v>78</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74">
+        <v>79</v>
+      </c>
+      <c r="D38" s="74">
         <v>80</v>
       </c>
-      <c r="B4" s="75">
-        <v>1</v>
-      </c>
-      <c r="C4" s="75">
-        <v>2</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="91"/>
-    </row>
-    <row r="5" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78" t="s">
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74">
+        <v>81</v>
+      </c>
+      <c r="F39" s="74"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="74">
+        <v>83</v>
+      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="74">
+        <v>84</v>
+      </c>
+      <c r="C41" s="74">
+        <v>85</v>
+      </c>
+      <c r="D41" s="74">
+        <v>86</v>
+      </c>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="74">
+        <v>89</v>
+      </c>
+      <c r="C42" s="74">
+        <v>90</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74">
+        <v>87</v>
+      </c>
+      <c r="F42" s="74">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="76" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75">
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74">
+        <v>91</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="74">
+        <v>94</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74">
+        <v>92</v>
+      </c>
+      <c r="F44" s="74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="74">
+        <v>95</v>
+      </c>
+      <c r="C45" s="74">
+        <v>96</v>
+      </c>
+      <c r="D45" s="74">
+        <v>97</v>
+      </c>
+      <c r="E45" s="74">
+        <v>98</v>
+      </c>
+      <c r="F45" s="74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74">
+        <v>100</v>
+      </c>
+      <c r="F46" s="74"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="76" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74">
+        <v>101</v>
+      </c>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74">
+        <v>102</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="74">
+        <v>105</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74">
+        <v>103</v>
+      </c>
+      <c r="F49" s="74">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74">
+        <v>106</v>
+      </c>
+      <c r="D50" s="74">
+        <v>107</v>
+      </c>
+      <c r="E50" s="74">
+        <v>108</v>
+      </c>
+      <c r="F50" s="74"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" s="74">
+        <v>109</v>
+      </c>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="91"/>
-    </row>
-    <row r="6" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="75">
-        <v>6</v>
-      </c>
-      <c r="C6" s="75">
-        <v>7</v>
-      </c>
-      <c r="D6" s="75">
-        <v>8</v>
-      </c>
-      <c r="E6" s="75">
-        <v>4</v>
-      </c>
-      <c r="F6" s="75">
-        <v>5</v>
-      </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="91"/>
-    </row>
-    <row r="7" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="75">
-        <v>9</v>
-      </c>
-      <c r="C7" s="75">
-        <v>10</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="91"/>
-    </row>
-    <row r="8" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75">
-        <v>11</v>
-      </c>
-      <c r="E8" s="75">
-        <v>12</v>
-      </c>
-      <c r="F8" s="75">
-        <v>13</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="91"/>
-    </row>
-    <row r="9" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="75">
-        <v>14</v>
-      </c>
-      <c r="C9" s="75">
-        <v>15</v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="91"/>
-    </row>
-    <row r="10" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75">
-        <v>16</v>
-      </c>
-      <c r="E10" s="75">
-        <v>17</v>
-      </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="91"/>
-    </row>
-    <row r="11" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="75">
-        <v>19</v>
-      </c>
-      <c r="C11" s="75">
-        <v>20</v>
-      </c>
-      <c r="D11" s="75">
-        <v>21</v>
-      </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75">
-        <v>18</v>
-      </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="91"/>
-    </row>
-    <row r="12" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75">
-        <v>22</v>
-      </c>
-      <c r="F12" s="75">
-        <v>23</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="91"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="75">
-        <v>24</v>
-      </c>
-      <c r="C13" s="75">
-        <v>25</v>
-      </c>
-      <c r="D13" s="75">
-        <v>26</v>
-      </c>
-      <c r="E13" s="75">
-        <v>27</v>
-      </c>
-      <c r="F13" s="75"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" s="75">
-        <v>29</v>
-      </c>
-      <c r="C14" s="75">
-        <v>30</v>
-      </c>
-      <c r="D14" s="75">
-        <v>31</v>
-      </c>
-      <c r="E14" s="75">
-        <v>32</v>
-      </c>
-      <c r="F14" s="75">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="B15" s="75">
-        <v>33</v>
-      </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-    </row>
-    <row r="16" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75">
-        <v>34</v>
-      </c>
-      <c r="D16" s="75">
-        <v>35</v>
-      </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="91"/>
-    </row>
-    <row r="17" spans="1:19" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="75">
-        <v>38</v>
-      </c>
-      <c r="C17" s="75">
-        <v>39</v>
-      </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75">
-        <v>36</v>
-      </c>
-      <c r="F17" s="75">
-        <v>37</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="91"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75">
-        <v>40</v>
-      </c>
-      <c r="E18" s="75">
-        <v>41</v>
-      </c>
-      <c r="F18" s="75">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="75">
-        <v>43</v>
-      </c>
-      <c r="C19" s="75">
-        <v>44</v>
-      </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75">
-        <v>45</v>
-      </c>
-      <c r="E20" s="75">
-        <v>46</v>
-      </c>
-      <c r="F20" s="75"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="75">
-        <v>48</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75">
-        <v>49</v>
-      </c>
-      <c r="D22" s="75">
-        <v>50</v>
-      </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75">
-        <v>51</v>
-      </c>
-      <c r="F23" s="75">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="75">
-        <v>53</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75">
-        <v>54</v>
-      </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75">
-        <v>55</v>
-      </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75">
-        <v>56</v>
-      </c>
-      <c r="F27" s="75"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="79" t="s">
-        <v>343</v>
-      </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75">
-        <v>59</v>
-      </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75">
-        <v>60</v>
-      </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75">
-        <v>61</v>
-      </c>
-      <c r="F32" s="75"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="75">
-        <v>63</v>
-      </c>
-      <c r="C34" s="75">
-        <v>64</v>
-      </c>
-      <c r="D34" s="75">
-        <v>65</v>
-      </c>
-      <c r="E34" s="75">
-        <v>66</v>
-      </c>
-      <c r="F34" s="75">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="75">
-        <v>68</v>
-      </c>
-      <c r="C35" s="75">
-        <v>69</v>
-      </c>
-      <c r="D35" s="75">
-        <v>70</v>
-      </c>
-      <c r="E35" s="75">
-        <v>71</v>
-      </c>
-      <c r="F35" s="75">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75">
-        <v>73</v>
-      </c>
-      <c r="D36" s="75">
-        <v>74</v>
-      </c>
-      <c r="E36" s="75">
-        <v>75</v>
-      </c>
-      <c r="F36" s="75">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="75">
-        <v>78</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75">
-        <v>79</v>
-      </c>
-      <c r="D38" s="75">
-        <v>80</v>
-      </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75">
-        <v>81</v>
-      </c>
-      <c r="F39" s="75"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="B40" s="75">
-        <v>83</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="75">
-        <v>84</v>
-      </c>
-      <c r="C41" s="75">
-        <v>85</v>
-      </c>
-      <c r="D41" s="75">
-        <v>86</v>
-      </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="B42" s="75">
-        <v>89</v>
-      </c>
-      <c r="C42" s="75">
-        <v>90</v>
-      </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75">
-        <v>87</v>
-      </c>
-      <c r="F42" s="75">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75">
-        <v>91</v>
-      </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="75">
-        <v>94</v>
-      </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75">
-        <v>92</v>
-      </c>
-      <c r="F44" s="75">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="75">
-        <v>95</v>
-      </c>
-      <c r="C45" s="75">
-        <v>96</v>
-      </c>
-      <c r="D45" s="75">
-        <v>97</v>
-      </c>
-      <c r="E45" s="75">
-        <v>98</v>
-      </c>
-      <c r="F45" s="75">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75">
-        <v>100</v>
-      </c>
-      <c r="F46" s="75"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="77" t="s">
-        <v>369</v>
-      </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75">
-        <v>101</v>
-      </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75">
-        <v>102</v>
-      </c>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="75">
-        <v>105</v>
-      </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75">
-        <v>103</v>
-      </c>
-      <c r="F49" s="75">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75">
-        <v>106</v>
-      </c>
-      <c r="D50" s="75">
-        <v>107</v>
-      </c>
-      <c r="E50" s="75">
-        <v>108</v>
-      </c>
-      <c r="F50" s="75"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="75">
-        <v>109</v>
-      </c>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="75">
+      <c r="B52" s="74">
         <f>COUNTA(B4:B51)</f>
         <v>22</v>
       </c>
-      <c r="C52" s="75">
+      <c r="C52" s="74">
         <f t="shared" ref="C52:F52" si="0">COUNTA(C4:C51)</f>
         <v>22</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="74">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E52" s="75">
+      <c r="E52" s="74">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F52" s="75">
+      <c r="F52" s="74">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
